--- a/Datos_nom_v1.xlsx
+++ b/Datos_nom_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdec365-my.sharepoint.com/personal/fabian_medina_coordinador_cl/Documents/Escritorio/CEN_Fabian/Codigos/DATA TEST GRID FORMING/00. New Version Code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdec365-my.sharepoint.com/personal/fabian_medina_coordinador_cl/Documents/Escritorio/CEN_Fabian/Codigos/Fabi_Casa_CEN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{F753373F-0C46-43EE-BD69-C2E7CA803044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFBFB7F6-D3C9-49E5-8A37-2BDBC015695C}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{F753373F-0C46-43EE-BD69-C2E7CA803044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD6818FF-180E-4163-B032-91A55B02411D}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3841A4ED-2311-48B5-BA7F-B751B76BB98D}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="19440" windowHeight="10440" xr2:uid="{3841A4ED-2311-48B5-BA7F-B751B76BB98D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -701,20 +701,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37028E8-C0BA-4921-90ED-81691782CD8E}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" customWidth="1"/>
+    <col min="4" max="4" width="21.36328125" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>92</v>
       </c>
@@ -731,7 +731,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -748,7 +748,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -765,7 +765,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -782,7 +782,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -799,7 +799,7 @@
         <v>162.1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -816,7 +816,7 @@
         <v>162.1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -833,7 +833,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -850,7 +850,7 @@
         <v>150.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -867,7 +867,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -884,7 +884,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -901,7 +901,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -918,7 +918,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -935,7 +935,7 @@
         <v>95.8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -952,7 +952,7 @@
         <v>95.8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -969,7 +969,7 @@
         <v>94.1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -986,7 +986,7 @@
         <v>94.1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -1082,13 +1082,13 @@
         <v>55</v>
       </c>
       <c r="D22">
-        <v>6.6</v>
+        <v>13.8</v>
       </c>
       <c r="E22">
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>72</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>73</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>23.61</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>52.42</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>23706</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>89</v>
       </c>
